--- a/data/amenazas_naturales.xlsx
+++ b/data/amenazas_naturales.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unfao-my.sharepoint.com/personal/israel_monjarazramirez_fao_org/Documents/Documentos/ProjectCodes/r/risk_analysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{774865DD-FFD0-4A12-88C3-5A40026C3F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6782334-0710-41FF-9179-0566EE30484E}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="8_{774865DD-FFD0-4A12-88C3-5A40026C3F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DBD3DB61-066A-45C3-BE58-492C05D2E7A8}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="270" windowWidth="25440" windowHeight="15270" xr2:uid="{F3ECBAF1-84B9-4024-904C-0DFB72650287}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F3ECBAF1-84B9-4024-904C-0DFB72650287}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$W$233</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,17 +39,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="348">
-  <si>
-    <t>Deslaves</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="344">
   <si>
     <t>Erosión</t>
   </si>
   <si>
-    <t>Sismos</t>
-  </si>
-  <si>
     <t>Cambio de Uso del Suelo</t>
   </si>
   <si>
@@ -75,12 +72,6 @@
   </si>
   <si>
     <t>Tormentas</t>
-  </si>
-  <si>
-    <t>Ciclones Tropicales</t>
-  </si>
-  <si>
-    <t>Nevadas</t>
   </si>
   <si>
     <t xml:space="preserve">Huracanes </t>
@@ -1458,10 +1449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D840BB1C-CC9E-4D16-ADEE-7E14A4A21E77}">
-  <dimension ref="A1:AA233"/>
+  <dimension ref="A1:W233"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="E1:F1"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="V234" sqref="V234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1469,27 +1460,27 @@
     <col min="2" max="2" width="45.6640625" customWidth="1"/>
     <col min="3" max="3" width="33" customWidth="1"/>
     <col min="5" max="5" width="67.6640625" customWidth="1"/>
-    <col min="9" max="9" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.77734375" customWidth="1"/>
-    <col min="26" max="26" width="50.109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.77734375" customWidth="1"/>
+    <col min="22" max="22" width="50.109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
@@ -1525,13 +1516,13 @@
         <v>10</v>
       </c>
       <c r="Q1" t="s">
+        <v>343</v>
+      </c>
+      <c r="R1" t="s">
         <v>11</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>12</v>
-      </c>
-      <c r="S1" t="s">
-        <v>347</v>
       </c>
       <c r="T1" t="s">
         <v>13</v>
@@ -1545,3125 +1536,3116 @@
       <c r="W1" t="s">
         <v>16</v>
       </c>
-      <c r="X1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="Z2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>30</v>
       </c>
-      <c r="D4" t="s">
-        <v>34</v>
-      </c>
       <c r="E4" t="s">
-        <v>32</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>30</v>
       </c>
-      <c r="D5" t="s">
-        <v>34</v>
-      </c>
       <c r="E5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="S5">
-        <v>1</v>
-      </c>
-      <c r="Z5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>30</v>
       </c>
-      <c r="D7" t="s">
-        <v>34</v>
-      </c>
       <c r="E7" t="s">
-        <v>32</v>
-      </c>
-      <c r="S7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z9">
-        <v>1</v>
-      </c>
-      <c r="AA9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z16">
-        <v>1</v>
-      </c>
-      <c r="AA16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="V16">
+        <v>1</v>
+      </c>
+      <c r="W16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E19" t="s">
-        <v>62</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="X19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E20" t="s">
-        <v>65</v>
-      </c>
-      <c r="X20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D21" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C23" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D23" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E23" t="s">
-        <v>47</v>
-      </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D24" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E24" t="s">
-        <v>47</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E25" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" t="s">
         <v>75</v>
       </c>
-      <c r="C26" t="s">
+      <c r="E27" t="s">
         <v>76</v>
       </c>
-      <c r="D26" t="s">
-        <v>77</v>
-      </c>
-      <c r="E26" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>78</v>
-      </c>
-      <c r="C27" t="s">
-        <v>76</v>
-      </c>
-      <c r="D27" t="s">
-        <v>79</v>
-      </c>
-      <c r="E27" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C28" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" t="s">
         <v>76</v>
       </c>
-      <c r="D28" t="s">
-        <v>82</v>
-      </c>
-      <c r="E28" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C29" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D29" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E29" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C30" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>39</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
       </c>
       <c r="O30">
         <v>1</v>
       </c>
-      <c r="Q30">
-        <v>1</v>
-      </c>
-      <c r="AA30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="W30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C31" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D31" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z31">
-        <v>1</v>
-      </c>
-      <c r="AA31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="V31">
+        <v>1</v>
+      </c>
+      <c r="W31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C32" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D32" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E32" t="s">
-        <v>32</v>
+        <v>28</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
       </c>
       <c r="P32">
         <v>1</v>
       </c>
-      <c r="R32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C33" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D33" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E33" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C34" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D34" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E34" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C35" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D35" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E35" t="s">
-        <v>80</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="X35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="T35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C36" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D36" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E36" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C37" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D37" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E37" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C38" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D38" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E38" t="s">
-        <v>98</v>
-      </c>
-      <c r="I38">
-        <v>1</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C39" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D39" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E39" t="s">
-        <v>32</v>
-      </c>
-      <c r="I39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C40" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D40" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E40" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C41" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D41" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E41" t="s">
-        <v>47</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C42" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D42" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E42" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C43" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D43" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E43" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C44" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D44" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E44" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C45" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D45" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E45" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C46" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D46" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E46" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+      <c r="V46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C47" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D47" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E47" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C48" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D48" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E48" t="s">
-        <v>91</v>
-      </c>
-      <c r="I48">
-        <v>1</v>
-      </c>
-      <c r="N48">
-        <v>1</v>
-      </c>
-      <c r="X48">
-        <v>1</v>
-      </c>
-      <c r="Y48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="T48">
+        <v>1</v>
+      </c>
+      <c r="U48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C49" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D49" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E49" t="s">
-        <v>65</v>
-      </c>
-      <c r="N49">
-        <v>1</v>
-      </c>
-      <c r="R49">
-        <v>1</v>
-      </c>
-      <c r="S49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="P49">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C50" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D50" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E50" t="s">
-        <v>47</v>
-      </c>
-      <c r="G50">
-        <v>1</v>
-      </c>
-      <c r="N50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C51" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D51" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E51" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C52" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D52" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E52" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C53" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D53" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E53" t="s">
-        <v>98</v>
-      </c>
-      <c r="I53">
-        <v>1</v>
-      </c>
-      <c r="N53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C54" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D54" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E54" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="W54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C55" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D55" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E55" t="s">
-        <v>43</v>
-      </c>
-      <c r="X55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="T55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C56" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D56" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E56" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C57" t="s">
+        <v>26</v>
+      </c>
+      <c r="D57" t="s">
         <v>30</v>
       </c>
-      <c r="D57" t="s">
-        <v>34</v>
-      </c>
       <c r="E57" t="s">
-        <v>32</v>
-      </c>
-      <c r="O57">
-        <v>1</v>
-      </c>
-      <c r="V57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="R57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C58" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D58" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E58" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C59" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D59" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E59" t="s">
-        <v>80</v>
-      </c>
-      <c r="I59">
-        <v>1</v>
-      </c>
-      <c r="N59">
-        <v>1</v>
-      </c>
-      <c r="Z59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="V59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C60" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D60" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E60" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+      <c r="V60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C61" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D61" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E61" t="s">
-        <v>80</v>
-      </c>
-      <c r="N61">
-        <v>1</v>
-      </c>
-      <c r="X61">
-        <v>1</v>
-      </c>
-      <c r="Z61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+      <c r="T61">
+        <v>1</v>
+      </c>
+      <c r="V61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C62" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D62" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E62" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C63" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D63" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E63" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C64" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D64" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E64" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C65" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D65" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E65" t="s">
-        <v>32</v>
-      </c>
-      <c r="N65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C66" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D66" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E66" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C67" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D67" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E67" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C68" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D68" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E68" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C69" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D69" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E69" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C70" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D70" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E70" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z70">
-        <v>1</v>
-      </c>
-      <c r="AA70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="V70">
+        <v>1</v>
+      </c>
+      <c r="W70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C71" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D71" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E71" t="s">
-        <v>80</v>
-      </c>
-      <c r="N71">
-        <v>1</v>
-      </c>
-      <c r="X71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+      <c r="L71">
+        <v>1</v>
+      </c>
+      <c r="T71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C72" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D72" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E72" t="s">
-        <v>80</v>
-      </c>
-      <c r="X72">
-        <v>1</v>
-      </c>
-      <c r="Z72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+      <c r="T72">
+        <v>1</v>
+      </c>
+      <c r="V72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C73" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D73" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E73" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C74" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D74" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E74" t="s">
-        <v>62</v>
-      </c>
-      <c r="N74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="L74">
+        <v>1</v>
+      </c>
+      <c r="V74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C75" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D75" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E75" t="s">
-        <v>47</v>
-      </c>
-      <c r="I75">
-        <v>1</v>
-      </c>
-      <c r="N75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="L75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C76" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D76" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E76" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C77" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D77" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E77" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C78" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D78" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E78" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C79" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D79" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E79" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C80" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D80" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E80" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C81" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D81" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E81" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C82" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D82" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E82" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C83" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D83" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E83" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C84" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D84" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E84" t="s">
-        <v>47</v>
-      </c>
-      <c r="N84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="L84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C85" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D85" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E85" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C86" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D86" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E86" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C87" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D87" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E87" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C88" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D88" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E88" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C89" t="s">
+        <v>26</v>
+      </c>
+      <c r="D89" t="s">
         <v>30</v>
       </c>
-      <c r="D89" t="s">
-        <v>34</v>
-      </c>
       <c r="E89" t="s">
-        <v>32</v>
-      </c>
-      <c r="O89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C90" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D90" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E90" t="s">
-        <v>43</v>
-      </c>
-      <c r="N90">
-        <v>1</v>
-      </c>
-      <c r="Q90">
-        <v>1</v>
-      </c>
-      <c r="Z90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="L90">
+        <v>1</v>
+      </c>
+      <c r="O90">
+        <v>1</v>
+      </c>
+      <c r="V90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C91" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D91" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E91" t="s">
-        <v>65</v>
-      </c>
-      <c r="O91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+      <c r="M91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C92" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D92" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E92" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C93" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D93" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E93" t="s">
-        <v>175</v>
-      </c>
-      <c r="W93">
-        <v>1</v>
-      </c>
-      <c r="Z93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+      <c r="S93">
+        <v>1</v>
+      </c>
+      <c r="V93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C94" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D94" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E94" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C95" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D95" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E95" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C96" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D96" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E96" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C97" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D97" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E97" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C98" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D98" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E98" t="s">
-        <v>62</v>
-      </c>
-      <c r="I98">
-        <v>1</v>
-      </c>
-      <c r="Z98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+      <c r="V98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C99" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D99" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E99" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C100" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D100" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E100" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C101" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D101" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E101" t="s">
-        <v>91</v>
-      </c>
-      <c r="I101">
+        <v>87</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
+      <c r="L101">
         <v>1</v>
       </c>
       <c r="N101">
         <v>1</v>
       </c>
-      <c r="P101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C102" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D102" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E102" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="103" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C103" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D103" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E103" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="104" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C104" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D104" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E104" t="s">
-        <v>47</v>
-      </c>
-      <c r="I104">
-        <v>1</v>
-      </c>
-      <c r="N104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="G104">
+        <v>1</v>
+      </c>
+      <c r="L104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C105" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D105" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E105" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="106" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C106" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D106" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E106" t="s">
-        <v>62</v>
-      </c>
-      <c r="I106">
-        <v>1</v>
-      </c>
-      <c r="M106">
-        <v>1</v>
-      </c>
-      <c r="N106">
-        <v>1</v>
-      </c>
-      <c r="W106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="G106">
+        <v>1</v>
+      </c>
+      <c r="K106">
+        <v>1</v>
+      </c>
+      <c r="L106">
+        <v>1</v>
+      </c>
+      <c r="S106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C107" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D107" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E107" t="s">
-        <v>32</v>
-      </c>
-      <c r="O107">
-        <v>1</v>
-      </c>
-      <c r="S107">
-        <v>1</v>
-      </c>
-      <c r="X107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="M107">
+        <v>1</v>
+      </c>
+      <c r="Q107">
+        <v>1</v>
+      </c>
+      <c r="T107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C108" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D108" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E108" t="s">
-        <v>65</v>
+        <v>61</v>
+      </c>
+      <c r="F108">
+        <v>1</v>
       </c>
       <c r="G108">
         <v>1</v>
       </c>
-      <c r="I108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C109" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D109" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E109" t="s">
-        <v>47</v>
-      </c>
-      <c r="I109">
-        <v>1</v>
-      </c>
-      <c r="N109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="G109">
+        <v>1</v>
+      </c>
+      <c r="L109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C110" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D110" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E110" t="s">
-        <v>47</v>
-      </c>
-      <c r="I110">
-        <v>1</v>
-      </c>
-      <c r="N110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="G110">
+        <v>1</v>
+      </c>
+      <c r="L110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C111" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D111" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E111" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="112" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C112" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D112" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E112" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C113" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D113" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E113" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C114" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D114" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E114" t="s">
-        <v>98</v>
-      </c>
-      <c r="I114">
-        <v>1</v>
-      </c>
-      <c r="J114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+      <c r="G114">
+        <v>1</v>
+      </c>
+      <c r="H114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C115" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D115" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E115" t="s">
-        <v>98</v>
-      </c>
-      <c r="I115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+      <c r="G115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C116" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D116" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E116" t="s">
-        <v>47</v>
-      </c>
-      <c r="N116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="L116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C117" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D117" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E117" t="s">
-        <v>47</v>
-      </c>
-      <c r="N117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="L117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C118" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D118" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E118" t="s">
-        <v>62</v>
-      </c>
-      <c r="N118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="L118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C119" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D119" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E119" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C120" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D120" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E120" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C121" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D121" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E121" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C122" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D122" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E122" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C123" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D123" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E123" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C124" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D124" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E124" t="s">
-        <v>32</v>
-      </c>
-      <c r="N124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="L124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C125" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D125" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E125" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C126" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D126" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E126" t="s">
-        <v>98</v>
-      </c>
-      <c r="I126">
-        <v>1</v>
-      </c>
-      <c r="N126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+      <c r="G126">
+        <v>1</v>
+      </c>
+      <c r="L126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C127" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D127" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E127" t="s">
-        <v>80</v>
+        <v>76</v>
+      </c>
+      <c r="J127">
+        <v>1</v>
       </c>
       <c r="L127">
         <v>1</v>
       </c>
-      <c r="N127">
-        <v>1</v>
-      </c>
-      <c r="W127">
-        <v>1</v>
-      </c>
-      <c r="X127">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="S127">
+        <v>1</v>
+      </c>
+      <c r="T127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C128" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D128" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E128" t="s">
-        <v>32</v>
-      </c>
-      <c r="S128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:26" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="Q128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C129" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D129" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E129" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="130" spans="1:26" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="130" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C130" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D130" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E130" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:26" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+      <c r="V130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C131" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D131" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E131" t="s">
-        <v>62</v>
+        <v>58</v>
+      </c>
+      <c r="J131">
+        <v>1</v>
       </c>
       <c r="L131">
         <v>1</v>
       </c>
-      <c r="N131">
-        <v>1</v>
-      </c>
-      <c r="X131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="T131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C132" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D132" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E132" t="s">
-        <v>65</v>
-      </c>
-      <c r="I132">
-        <v>1</v>
-      </c>
-      <c r="M132">
-        <v>1</v>
-      </c>
-      <c r="N132">
-        <v>1</v>
-      </c>
-      <c r="W132">
-        <v>1</v>
-      </c>
-      <c r="X132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:26" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+      <c r="G132">
+        <v>1</v>
+      </c>
+      <c r="K132">
+        <v>1</v>
+      </c>
+      <c r="L132">
+        <v>1</v>
+      </c>
+      <c r="S132">
+        <v>1</v>
+      </c>
+      <c r="T132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C133" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D133" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E133" t="s">
-        <v>91</v>
-      </c>
-      <c r="L133">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:26" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+      <c r="J133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C134" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D134" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E134" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="135" spans="1:26" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="135" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C135" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D135" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E135" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="136" spans="1:26" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="136" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C136" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D136" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E136" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="137" spans="1:26" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="137" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C137" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D137" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E137" t="s">
-        <v>47</v>
-      </c>
-      <c r="I137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:26" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="G137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C138" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D138" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E138" t="s">
-        <v>47</v>
-      </c>
-      <c r="N138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:26" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="L138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C139" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D139" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E139" t="s">
-        <v>62</v>
-      </c>
-      <c r="I139">
-        <v>1</v>
-      </c>
-      <c r="M139">
-        <v>1</v>
-      </c>
-      <c r="N139">
-        <v>1</v>
-      </c>
-      <c r="X139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:26" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="G139">
+        <v>1</v>
+      </c>
+      <c r="K139">
+        <v>1</v>
+      </c>
+      <c r="L139">
+        <v>1</v>
+      </c>
+      <c r="T139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C140" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D140" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E140" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="141" spans="1:26" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="141" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C141" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D141" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E141" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="142" spans="1:26" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="142" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C142" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D142" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E142" t="s">
-        <v>80</v>
-      </c>
-      <c r="P142">
-        <v>1</v>
-      </c>
-      <c r="X142">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:26" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+      <c r="N142">
+        <v>1</v>
+      </c>
+      <c r="T142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C143" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D143" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E143" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="144" spans="1:26" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="144" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C144" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D144" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E144" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="145" spans="1:24" x14ac:dyDescent="0.3">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="145" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C145" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D145" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E145" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="146" spans="1:24" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="146" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C146" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D146" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E146" t="s">
-        <v>98</v>
-      </c>
-      <c r="I146">
-        <v>1</v>
-      </c>
-      <c r="N146">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:24" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+      <c r="G146">
+        <v>1</v>
+      </c>
+      <c r="L146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C147" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D147" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E147" t="s">
-        <v>91</v>
-      </c>
-      <c r="N147">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:24" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+      <c r="L147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C148" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D148" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E148" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="149" spans="1:24" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="149" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C149" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D149" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E149" t="s">
-        <v>98</v>
-      </c>
-      <c r="N149">
-        <v>1</v>
-      </c>
-      <c r="W149">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:24" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+      <c r="L149">
+        <v>1</v>
+      </c>
+      <c r="S149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C150" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D150" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E150" t="s">
-        <v>65</v>
-      </c>
-      <c r="I150">
-        <v>1</v>
-      </c>
-      <c r="N150">
-        <v>1</v>
-      </c>
-      <c r="X150">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:24" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+      <c r="G150">
+        <v>1</v>
+      </c>
+      <c r="L150">
+        <v>1</v>
+      </c>
+      <c r="T150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C151" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D151" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E151" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="152" spans="1:24" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="152" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C152" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D152" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E152" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="153" spans="1:24" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="153" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C153" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D153" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E153" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="154" spans="1:24" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="154" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C154" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D154" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E154" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="155" spans="1:24" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="155" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C155" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D155" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E155" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="156" spans="1:24" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="156" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C156" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D156" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E156" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="157" spans="1:24" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="157" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C157" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D157" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E157" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="158" spans="1:24" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="158" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C158" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D158" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E158" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="159" spans="1:24" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="159" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C159" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D159" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E159" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="160" spans="1:24" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="160" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C160" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D160" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E160" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
@@ -4671,16 +4653,16 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C161" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D161" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E161" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
@@ -4688,16 +4670,16 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C162" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D162" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E162" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
@@ -4705,16 +4687,16 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C163" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D163" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E163" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
@@ -4722,16 +4704,16 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C164" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D164" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E164" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
@@ -4739,16 +4721,16 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C165" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D165" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E165" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
@@ -4756,16 +4738,16 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C166" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D166" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E166" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
@@ -4773,16 +4755,16 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C167" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D167" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E167" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
@@ -4790,16 +4772,16 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C168" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D168" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
@@ -4807,16 +4789,16 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C169" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D169" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E169" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
@@ -4824,16 +4806,16 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C170" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D170" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E170" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
@@ -4841,16 +4823,16 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C171" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D171" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E171" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
@@ -4858,16 +4840,16 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C172" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D172" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E172" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
@@ -4875,16 +4857,16 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C173" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D173" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E173" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
@@ -4892,16 +4874,16 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C174" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D174" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E174" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
@@ -4909,16 +4891,16 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C175" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D175" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E175" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
@@ -4926,1140 +4908,1149 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C176" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D176" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E176" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="177" spans="1:26" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="177" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C177" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D177" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E177" t="s">
-        <v>43</v>
-      </c>
-      <c r="N177">
-        <v>1</v>
-      </c>
-      <c r="Q177">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:26" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="L177">
+        <v>1</v>
+      </c>
+      <c r="O177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C178" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D178" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E178" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="179" spans="1:26" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="179" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C179" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D179" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E179" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="180" spans="1:26" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="180" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C180" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D180" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E180" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="181" spans="1:26" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="181" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C181" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D181" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E181" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="182" spans="1:26" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="182" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C182" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D182" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E182" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="183" spans="1:26" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="183" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C183" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D183" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E183" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="184" spans="1:26" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="184" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C184" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D184" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E184" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="185" spans="1:26" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="185" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C185" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D185" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E185" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="186" spans="1:26" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="186" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C186" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D186" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E186" t="s">
-        <v>47</v>
-      </c>
-      <c r="I186">
-        <v>1</v>
-      </c>
-      <c r="N186">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:26" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="G186">
+        <v>1</v>
+      </c>
+      <c r="L186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C187" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D187" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E187" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="188" spans="1:26" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="188" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C188" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D188" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E188" t="s">
-        <v>32</v>
-      </c>
-      <c r="N188">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:26" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="L188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C189" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D189" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E189" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q189">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:26" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="O189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C190" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D190" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E190" t="s">
-        <v>80</v>
-      </c>
-      <c r="N190">
-        <v>1</v>
-      </c>
-      <c r="X190">
-        <v>1</v>
-      </c>
-      <c r="Z190">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:26" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+      <c r="L190">
+        <v>1</v>
+      </c>
+      <c r="T190">
+        <v>1</v>
+      </c>
+      <c r="V190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C191" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D191" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E191" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="192" spans="1:26" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="192" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C192" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D192" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E192" t="s">
-        <v>65</v>
-      </c>
-      <c r="I192">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="1:26" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+      <c r="G192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C193" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D193" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E193" t="s">
-        <v>91</v>
-      </c>
-      <c r="N193">
-        <v>1</v>
-      </c>
-      <c r="Z193">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194" spans="1:26" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+      <c r="L193">
+        <v>1</v>
+      </c>
+      <c r="V193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C194" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D194" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E194" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="195" spans="1:26" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="195" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C195" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D195" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E195" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="196" spans="1:26" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="196" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C196" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D196" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E196" t="s">
-        <v>43</v>
+        <v>39</v>
+      </c>
+      <c r="L196">
+        <v>1</v>
       </c>
       <c r="N196">
         <v>1</v>
       </c>
-      <c r="P196">
-        <v>1</v>
-      </c>
-      <c r="Z196">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="V196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C197" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D197" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E197" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="198" spans="1:26" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="198" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C198" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D198" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E198" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="199" spans="1:26" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="199" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C199" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D199" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E199" t="s">
-        <v>80</v>
-      </c>
-      <c r="I199">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200" spans="1:26" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+      <c r="G199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C200" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D200" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="E200" t="s">
-        <v>62</v>
+        <v>58</v>
+      </c>
+      <c r="J200">
+        <v>1</v>
       </c>
       <c r="L200">
         <v>1</v>
       </c>
-      <c r="N200">
-        <v>1</v>
-      </c>
-      <c r="X200">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="T200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C201" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D201" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E201" t="s">
-        <v>62</v>
+        <v>58</v>
+      </c>
+      <c r="G201">
+        <v>1</v>
       </c>
       <c r="I201">
         <v>1</v>
       </c>
-      <c r="K201">
-        <v>1</v>
-      </c>
-      <c r="N201">
-        <v>1</v>
-      </c>
-      <c r="X201">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="L201">
+        <v>1</v>
+      </c>
+      <c r="T201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C202" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D202" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E202" t="s">
-        <v>43</v>
+        <v>39</v>
+      </c>
+      <c r="J202">
+        <v>1</v>
       </c>
       <c r="L202">
         <v>1</v>
       </c>
-      <c r="N202">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203" spans="1:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="203" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C203" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D203" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="E203" t="s">
-        <v>80</v>
-      </c>
-      <c r="X203">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204" spans="1:26" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+      <c r="T203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C204" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D204" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E204" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="205" spans="1:26" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="205" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C205" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D205" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E205" t="s">
-        <v>98</v>
-      </c>
-      <c r="J205">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206" spans="1:26" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+      <c r="H205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C206" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D206" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E206" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="207" spans="1:26" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="207" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C207" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D207" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E207" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="208" spans="1:26" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="208" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C208" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D208" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E208" t="s">
-        <v>62</v>
-      </c>
-      <c r="I208">
+        <v>58</v>
+      </c>
+      <c r="G208">
+        <v>1</v>
+      </c>
+      <c r="L208">
         <v>1</v>
       </c>
       <c r="N208">
         <v>1</v>
       </c>
-      <c r="P208">
-        <v>1</v>
-      </c>
-      <c r="X208">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="T208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C209" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D209" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E209" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="210" spans="1:26" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="O209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C210" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D210" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E210" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="211" spans="1:26" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="211" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C211" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D211" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E211" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="212" spans="1:26" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="212" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C212" t="s">
+        <v>26</v>
+      </c>
+      <c r="D212" t="s">
         <v>30</v>
       </c>
-      <c r="D212" t="s">
-        <v>34</v>
-      </c>
       <c r="E212" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="213" spans="1:26" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="213" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C213" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D213" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E213" t="s">
-        <v>91</v>
+        <v>87</v>
+      </c>
+      <c r="J213">
+        <v>1</v>
       </c>
       <c r="L213">
         <v>1</v>
       </c>
-      <c r="N213">
-        <v>1</v>
-      </c>
-      <c r="X213">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="T213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C214" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D214" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E214" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="215" spans="1:26" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="215" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C215" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D215" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E215" t="s">
-        <v>43</v>
-      </c>
-      <c r="I215">
-        <v>1</v>
-      </c>
-      <c r="L215">
-        <v>1</v>
-      </c>
-      <c r="Z215">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216" spans="1:26" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="G215">
+        <v>1</v>
+      </c>
+      <c r="J215">
+        <v>1</v>
+      </c>
+      <c r="V215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C216" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D216" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E216" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="217" spans="1:26" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="217" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C217" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D217" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E217" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="218" spans="1:26" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="218" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>218</v>
       </c>
       <c r="B218" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C218" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D218" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E218" t="s">
-        <v>65</v>
-      </c>
-      <c r="I218">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219" spans="1:26" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+      <c r="G218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>219</v>
       </c>
       <c r="B219" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C219" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D219" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E219" t="s">
-        <v>47</v>
-      </c>
-      <c r="I219">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220" spans="1:26" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="G219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>220</v>
       </c>
       <c r="B220" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C220" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D220" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E220" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="221" spans="1:26" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="221" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>221</v>
       </c>
       <c r="B221" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C221" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D221" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="E221" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="222" spans="1:26" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="222" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>222</v>
       </c>
       <c r="B222" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C222" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D222" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E222" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="223" spans="1:26" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="223" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>223</v>
       </c>
       <c r="B223" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C223" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D223" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E223" t="s">
-        <v>47</v>
-      </c>
-      <c r="N223">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="224" spans="1:26" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="L223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>224</v>
       </c>
       <c r="B224" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C224" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D224" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E224" t="s">
-        <v>32</v>
-      </c>
-      <c r="N224">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225" spans="1:27" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="F224">
+        <v>1</v>
+      </c>
+      <c r="L224">
+        <v>1</v>
+      </c>
+      <c r="Q224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>225</v>
       </c>
       <c r="B225" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C225" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D225" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E225" t="s">
-        <v>47</v>
-      </c>
-      <c r="N225">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226" spans="1:27" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="L225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>226</v>
       </c>
       <c r="B226" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C226" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D226" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E226" t="s">
-        <v>62</v>
-      </c>
-      <c r="I226">
-        <v>1</v>
-      </c>
-      <c r="M226">
-        <v>1</v>
-      </c>
-      <c r="N226">
-        <v>1</v>
-      </c>
-      <c r="X226">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227" spans="1:27" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="G226">
+        <v>1</v>
+      </c>
+      <c r="K226">
+        <v>1</v>
+      </c>
+      <c r="L226">
+        <v>1</v>
+      </c>
+      <c r="T226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>227</v>
       </c>
       <c r="B227" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C227" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D227" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E227" t="s">
-        <v>98</v>
-      </c>
-      <c r="I227">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228" spans="1:27" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+      <c r="G227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>217</v>
       </c>
       <c r="B228" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C228" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D228" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E228" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="229" spans="1:27" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="229" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C229" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D229" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E229" t="s">
-        <v>65</v>
-      </c>
-      <c r="N229">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230" spans="1:27" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+      <c r="L229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C230" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D230" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E230" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA230">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231" spans="1:27" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="W230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C231" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D231" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E231" t="s">
-        <v>65</v>
-      </c>
-      <c r="P231">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232" spans="1:27" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+      <c r="N231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C232" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D232" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E232" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="233" spans="1:27" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="233" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C233" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D233" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E233" t="s">
-        <v>43</v>
-      </c>
-      <c r="J233">
-        <v>1</v>
-      </c>
-      <c r="Z233">
+        <v>39</v>
+      </c>
+      <c r="H233">
+        <v>1</v>
+      </c>
+      <c r="V233">
         <v>1</v>
       </c>
     </row>
